--- a/Test/Input/Item.xlsx
+++ b/Test/Input/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\MakeConfig.Sharp\Test\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB33BA46-B7EB-4271-B40B-567103C81ED6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A759F3C2-683D-4FA2-94FB-0AD8C452FB78}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32235" yWindow="3600" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -388,7 +388,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -428,9 +428,6 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>

--- a/Test/Input/Item.xlsx
+++ b/Test/Input/Item.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\MakeConfig.Sharp\Test\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A759F3C2-683D-4FA2-94FB-0AD8C452FB78}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCED5FA-2315-411C-8EB5-841DB67CD9A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32235" yWindow="3600" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>\empty</t>
+    <t>empty</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,7 +388,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
